--- a/biology/Botanique/Zeugiteae/Zeugiteae.xlsx
+++ b/biology/Botanique/Zeugiteae/Zeugiteae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zeugiteae sont une tribu de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Afrique, d'Asie, d'Australasie, d'Amérique du Sud et d'Amérique centrale.
-Cette tribu regroupe 18 espèces en cinq genres[2].
-Contrairement à beaucoup d'autres clades de la sous-famille des Panicoideae, elle utilise la voie photosynthétique en C3[3]
+Cette tribu regroupe 18 espèces en cinq genres.
+Contrairement à beaucoup d'autres clades de la sous-famille des Panicoideae, elle utilise la voie photosynthétique en C3
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[4],[5],[6],[7],[8] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List :
 Chevalierella  A.Camus (1933) :
 Chevalierella dewildemanii (Vanderyst) Van der Veken ex Compère ;
 Lophatherum Brongn. (1831) :
